--- a/data/summary_22071410.xlsx
+++ b/data/summary_22071410.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,1439 +406,1607 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>21.52375690607735</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>988.0011049723757</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.4630793388429752</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.4459322314049587</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.896583402293734</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-9.218094963314717e-006</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>21.91988950276243</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6.141988950276243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>20.84696132596685</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>988.1193370165746</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.4406190082644628</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.4359537190082645</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.831012253452104</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-3.884829044880711e-017</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>21.36408839779006</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10.97292817679558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>20.48729281767956</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>988.2082872928177</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.6171834710743802</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.6054289256198348</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3.852334648372678</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.346517116933771e-017</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20.93756906077348</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.41878453038674</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>20.16685082872928</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>988.3983425414365</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.427599173553719</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4251652892561983</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.620044062724843</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.498052923599617e-018</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>20.58287292817679</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.962983425414365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>19.8585635359116</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>988.5220994475138</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.3721214876033058</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.3587247933884298</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.331671590204908</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.499817101467986e-018</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20.23370165745856</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4.269060773480663</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>19.71270718232044</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>988.5558011049724</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.4674495867768595</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.5862057851239669</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.478720037383623</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.500615338799053e-018</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>19.97513812154696</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4.73756906077348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>19.49060773480663</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>988.7049723756907</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3021173553719008</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2931</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.970187255431215</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.501981017246278e-018</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>19.7</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.823204419889503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>19.46685082872928</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>988.7116022099448</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.2843413223140496</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2849553719008264</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.75143155987936</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9.096238584354369e-005</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>19.54530386740332</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.161325966850829</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>19.4828729281768</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>988.7950276243093</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.3717305785123967</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.3595280991735537</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.335311188217027</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.502157533502168e-018</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>19.5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4.097790055248619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>19.5060773480663</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>988.8049723756906</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.4653223140495868</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.433599173553719</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.991910186786064</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0001331691309700101</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>19.42265193370166</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.880662983425414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>19.52154696132597</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>988.8127071823204</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3503917355371901</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3550512396694215</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.189103926493541</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.0001299527903323896</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>19.30773480662984</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.874585635359116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>19.4878453038674</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>988.8674033149171</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.5631603305785125</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.554003305785124</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3.576146204777491</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3.45724894524393e-005</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>19.30331491712707</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5.343093922651934</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>20.19502762430939</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>988.9149171270718</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.525202479338843</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.4988909090909091</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3.349261882025597</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.49869187265168e-018</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>19.32983425414365</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>7.305524861878453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>19.98563535911602</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>988.9646408839778</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.6284429752066115</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.5522892561983471</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4.153347220009745</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.0001324770394479279</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>19.49447513812155</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>7.354696132596685</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>20.00441988950276</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>989.0348066298343</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.5081743801652893</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.4676363636363636</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3.278980740261647</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.206369484075229e-005</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>19.5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>7.664088397790056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>20.15414364640884</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>989.125414364641</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.4378545454545454</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.383702479338843</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.98626351335729</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.0001404106985956341</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>19.50662983425415</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>7.281767955801105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>20.17569060773481</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>989.2093922651934</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.4360404958677686</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.4179570247933884</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.76778797910014</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>5.786180011815895e-006</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>19.7</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>6.106629834254143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>20.33756906077348</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>989.2530386740332</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.3592198347107438</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.3455495867768595</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2.256785828590253</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.348628441105341e-017</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>19.70552486187845</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4.451381215469613</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>22.58121546961326</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>988.7861878453039</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.2564181818181818</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.2632454545454546</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1.588682783648082</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.0002202339354707526</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>20.98066298342542</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>7.616574585635359</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>24.92817679558011</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>988.8099447513812</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2096933884297521</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.1814487603305785</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.432914212099405</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.0002660778122633983</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>21.61049723756906</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3.713812154696132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>26.81160220994475</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>988.8502762430938</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2864363636363637</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2423198347107438</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1.922360419029506</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.0001835198703835362</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>22.0171270718232</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>5.518232044198896</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>29.41381215469613</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>988.8983425414365</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.2298371900826446</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.1893231404958678</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.552964953106653</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.0003029524548833091</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>22.76353591160221</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>13.50883977900553</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>32.28176795580111</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>988.9878453038674</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.2717578512396695</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.2340107438016529</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1.74831241875151</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.0003321224468703255</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>23.68453038674033</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>7.641988950276243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>31.77900552486188</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>989.0121546961326</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.3345851239669421</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.3077661157024794</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2.241586526233692</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.0003090070953556212</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>23.70994475138122</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>11.64033149171271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>31.59944751381216</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>989.1</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.3939214876033058</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.3838719008264463</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2.453398428516043</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.0001436895576056269</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>23.83591160220994</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>12.30883977900553</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>32.43093922651934</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>989.1745856353591</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.2946181818181818</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.2690487603305785</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.887611584680656</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.0001612380531677948</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>24.29502762430939</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>10.78563535911602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>33.49226519337017</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>989.160773480663</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.2218636363636364</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.1928809917355372</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.463038009389869</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.0001728122169480919</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>24.90441988950276</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.217127071823204</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>34.9475138121547</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>989.1701657458564</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.2596206611570248</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.2472520661157025</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.66415776783517</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>7.714137931217923e-005</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>25.83038674033149</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>9.092817679558012</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>35.64640883977901</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>989.2381215469613</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.3221380165289256</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.3171413223140496</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.937254128198113</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.0001140175698601651</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>26.5524861878453</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>3.786187845303867</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>36.0939226519337</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>989.2740331491713</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.3398917355371901</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.3354297520661157</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.072699516540292</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.0002040892104836233</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>26.9</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>6.069060773480663</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>35.95414364640884</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>989.3066298342541</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.2794520661157025</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.2675231404958678</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1.797211508779744</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.0003146337410807333</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>27.46022099447514</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.706629834254144</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>34.96740331491713</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>989.3458563535911</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.2326702479338843</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.1910743801652892</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1.594998106400444</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.0002492277096267901</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>27.93922651933702</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>5.449171270718233</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>35.0171270718232</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>989.3591160220994</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.1337760330578512</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.08926198347107438</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.040062171594624</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>9.843828239373658e-005</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>28</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>4.524309392265193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>36.00441988950276</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>989.392817679558</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.3662322314049587</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.3390570247933885</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2.419140287232515</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.0001699599365553541</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>28.56353591160221</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>3.362983425414365</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>36.26243093922652</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>989.4022099447514</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.3108520661157025</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.2859206611570248</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2.002777282176105</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.0002103382356029447</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>29.50994475138122</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>9.180662983425414</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>36.5596685082873</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>989.3994475138121</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.2672495867768595</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.2624471074380165</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1.65587473615069</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.0002686576580880249</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>29.93093922651934</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>13.55027624309392</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>32.78011049723757</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>989.214364640884</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.3937107438016529</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.3783190082644628</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2.444208067062379</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-1.293719470353845e-017</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>31.83922651933702</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>1.47292817679558</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>31.09281767955801</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>989.2038674033149</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.4231876033057851</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.3988677685950413</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>2.66840771307228</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>-7.547822797073127e-005</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>30.28066298342542</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>3.562983425414365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>30.14364640883978</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>989.1618784530388</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.4018396694214876</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.3837305785123967</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>2.60621099255284</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>8.420614288627562e-005</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>29.1121546961326</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2.865745856353591</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>29.84530386740331</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>989.2381215469613</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.3594942148760331</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.3531272727272727</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>2.256414732605259</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.0001621099248935581</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>28.15082872928177</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>3.541436464088398</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>29.77845303867403</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>989.1602209944751</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.3012049586776859</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.2982421487603306</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>1.974643301537034</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.000125397784704469</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>27.4767955801105</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>4.903314917127072</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>29.81657458563536</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>989.0729281767956</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.281004132231405</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.2710462809917356</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1.692188978319279</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.0001692869498372428</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>26.9232044198895</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>3.129281767955801</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>29.7</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>989.0488888888889</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>-4.628347178062593e-017</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>26.9</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>3.517777777777778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>29.50662983425415</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>989.0436464088398</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.3782512396694215</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.3394966942148761</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>2.399652887257882</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>8.996651978934588e-005</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>26.9</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>3.781215469613259</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>29.83922651933702</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>989.007182320442</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.3236338842975207</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.3119785123966942</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>2.114937412411614</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.0001801279159463317</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>26.17513812154696</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>5.041988950276243</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>30.81270718232044</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>988.9745856353591</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.3625603305785124</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.3504809917355372</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>2.24863063396224</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.0002231702532678365</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>25.6</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>3.81767955801105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>31</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>988.9272727272727</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>9.514854977036743e-017</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>25.6</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>30.84475138121547</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>988.9005524861879</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.3436652892561983</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.337000826446281</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>2.177968139840732</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.0001747989531011608</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>25.9</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>1.697790055248619</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>30.74806629834254</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>988.8348066298343</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.333907438016529</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.3205371900826446</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>2.178516556299903</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.0001376928769608008</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>26.2</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>2.600552486187846</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>30.70441988950276</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>988.7281767955801</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.2589214876033058</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.2825702479338843</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>1.546099455219102</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.000135742813667891</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>26.48121546961326</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1.411049723756906</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>31.2182320441989</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>988.5972375690608</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.4624190082644628</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0.3985950413223141</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>3.086567498541831</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.0001675905084499024</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>26.71160220994475</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>3.987292817679558</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
         <v>31.99558011049724</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>988.5845303867403</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.468401652892562</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0.4315289256198347</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>3.008691560910648</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.0001887854795921661</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>26.35469613259668</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>3.569613259668508</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
         <v>32.07569060773481</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>988.4591160220995</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.3677611570247934</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.3629578512396695</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>2.238154353030004</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.000138703437170051</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>26.2</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1.66353591160221</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
         <v>32.50939226519337</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>988.3972375690607</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>0.3476198347107438</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.3505776859504132</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>2.234837153642942</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.0001052312553680037</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>27.09116022099448</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>0.4414364640883978</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
         <v>33.78563535911602</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>988.3254143646409</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>0.4426644628099173</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>0.4257834710743801</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>2.71217992628802</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0.0001497244192133669</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>27.91160220994475</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
         <v>34.19723756906078</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>988.2386740331492</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>0.4362099173553719</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>0.4401066115702479</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>2.708308261371688</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>0.0001143792945720842</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>28.58342541436464</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>3.549723756906078</v>
       </c>
     </row>
